--- a/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A870C2-AC4F-4560-AD02-9FBECA8D1C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B321D9D-4FD4-4D4F-9EBC-868DF445FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{864734D1-AB7B-4C85-BC7E-76E32E5EF4CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{966C861E-A2A5-415F-B832-C41A2FAF3849}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,52 +77,58 @@
     <t>49,97%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
   </si>
   <si>
     <t>52,8%</t>
   </si>
   <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,55 +140,55 @@
     <t>61,96%</t>
   </si>
   <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>65,23%</t>
   </si>
   <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>34,77%</t>
   </si>
   <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -191,55 +197,55 @@
     <t>61,38%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,55 +254,55 @@
     <t>64,41%</t>
   </si>
   <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,55 +311,55 @@
     <t>70,42%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,103 +368,109 @@
     <t>73,73%</t>
   </si>
   <si>
-    <t>69,96%</t>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>77,74%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>76,03%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>63,23%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -470,703 +482,703 @@
     <t>51,37%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>63,78%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>54,12%</t>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>45,88%</t>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>67,11%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>75,43%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>71,03%</t>
   </si>
   <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2015 (Tasa respuesta: 99,53%)</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>68,43%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>72,44%</t>
   </si>
   <si>
-    <t>75,84%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>27,56%</t>
   </si>
   <si>
-    <t>24,16%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
   </si>
   <si>
     <t>28,95%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>71,1%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
   </si>
   <si>
     <t>80,38%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>19,62%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>80,42%</t>
   </si>
   <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>77,66%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>19,58%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>22,34%</t>
   </si>
   <si>
     <t>81,81%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>81,89%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>81,85%</t>
   </si>
   <si>
-    <t>83,96%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>16,04%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>72,3%</t>
   </si>
   <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>73,78%</t>
+    <t>73,91%</t>
   </si>
   <si>
     <t>75,89%</t>
@@ -1175,16 +1187,16 @@
     <t>27,7%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>25,09%</t>
@@ -1193,7 +1205,7 @@
     <t>24,11%</t>
   </si>
   <si>
-    <t>26,22%</t>
+    <t>26,09%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
@@ -1956,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659BA626-EE59-495F-A5B7-35ACAC89A312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE0F017-D3E5-49E2-A90C-04CE041CD459}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2152,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>483</v>
@@ -2161,13 +2173,13 @@
         <v>467324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2194,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>488</v>
@@ -2197,13 +2209,13 @@
         <v>466429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>987</v>
@@ -2212,18 +2224,18 @@
         <v>960493</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2235,13 +2247,13 @@
         <v>455705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>405</v>
@@ -2250,13 +2262,13 @@
         <v>432060</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>835</v>
@@ -2265,13 +2277,13 @@
         <v>887765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2298,13 @@
         <v>279784</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>186</v>
@@ -2301,13 +2313,13 @@
         <v>193434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>459</v>
@@ -2316,13 +2328,13 @@
         <v>473217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2349,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2352,13 +2364,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2367,18 +2379,18 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2402,13 @@
         <v>391987</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>472</v>
@@ -2405,13 +2417,13 @@
         <v>498441</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>851</v>
@@ -2420,13 +2432,13 @@
         <v>890428</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2453,13 @@
         <v>246681</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>186</v>
@@ -2456,13 +2468,13 @@
         <v>191303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>420</v>
@@ -2471,13 +2483,13 @@
         <v>437984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2504,13 @@
         <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2507,13 +2519,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1271</v>
@@ -2522,18 +2534,18 @@
         <v>1328412</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2557,13 @@
         <v>334366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>387</v>
@@ -2560,13 +2572,13 @@
         <v>397869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>701</v>
@@ -2575,13 +2587,13 @@
         <v>732235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2608,13 @@
         <v>184781</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -2611,13 +2623,13 @@
         <v>117773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -2626,13 +2638,13 @@
         <v>302554</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2659,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2662,13 +2674,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2677,18 +2689,18 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2712,13 @@
         <v>271735</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>295</v>
@@ -2715,13 +2727,13 @@
         <v>300748</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>570</v>
@@ -2730,13 +2742,13 @@
         <v>572483</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2763,13 @@
         <v>114141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -2766,13 +2778,13 @@
         <v>103238</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -2781,13 +2793,13 @@
         <v>217379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2814,13 @@
         <v>385876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2817,13 +2829,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>787</v>
@@ -2832,18 +2844,18 @@
         <v>789862</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2867,13 @@
         <v>370448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>517</v>
@@ -2870,13 +2882,13 @@
         <v>526173</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>901</v>
@@ -2885,13 +2897,13 @@
         <v>896622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2918,13 @@
         <v>132018</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -2921,13 +2933,13 @@
         <v>150669</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -2936,13 +2948,13 @@
         <v>282686</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2969,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2972,13 +2984,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2987,13 +2999,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3022,13 @@
         <v>2071131</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2332</v>
@@ -3025,13 +3037,13 @@
         <v>2401571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>4362</v>
@@ -3040,13 +3052,13 @@
         <v>4472702</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,16 +3070,16 @@
         <v>1183</v>
       </c>
       <c r="D23" s="7">
-        <v>1204579</v>
+        <v>1204578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>964</v>
@@ -3076,13 +3088,13 @@
         <v>976567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2147</v>
@@ -3091,13 +3103,13 @@
         <v>2181145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,16 +3121,16 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275710</v>
+        <v>3275709</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3296</v>
@@ -3127,13 +3139,13 @@
         <v>3378138</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6509</v>
@@ -3142,18 +3154,18 @@
         <v>6653847</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B2F9D-2483-43C9-8750-823443C2E29C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA40A052-E5BC-4E8F-9AD5-BA08616C8F14}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3311,13 @@
         <v>233283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>268</v>
@@ -3314,13 +3326,13 @@
         <v>273813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -3329,13 +3341,13 @@
         <v>507096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3362,13 @@
         <v>220863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
@@ -3365,13 +3377,13 @@
         <v>155475</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
@@ -3380,13 +3392,13 @@
         <v>376338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3413,13 @@
         <v>454146</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3416,13 +3428,13 @@
         <v>429288</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>866</v>
@@ -3431,18 +3443,18 @@
         <v>883434</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3454,13 +3466,13 @@
         <v>461126</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>428</v>
@@ -3469,13 +3481,13 @@
         <v>460344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>873</v>
@@ -3484,13 +3496,13 @@
         <v>921470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3517,13 @@
         <v>225961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -3520,13 +3532,13 @@
         <v>149911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>365</v>
@@ -3535,13 +3547,13 @@
         <v>375872</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3568,13 @@
         <v>687087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>571</v>
@@ -3571,13 +3583,13 @@
         <v>610255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1238</v>
@@ -3586,18 +3598,18 @@
         <v>1297342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3609,13 +3621,13 @@
         <v>500568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -3624,13 +3636,13 @@
         <v>573930</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -3639,13 +3651,13 @@
         <v>1074498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3672,13 @@
         <v>180265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -3675,13 +3687,13 @@
         <v>135936</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -3690,13 +3702,13 @@
         <v>316202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3723,13 @@
         <v>680833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>666</v>
@@ -3726,13 +3738,13 @@
         <v>709866</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1316</v>
@@ -3741,18 +3753,18 @@
         <v>1390700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3764,13 +3776,13 @@
         <v>444497</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -3779,13 +3791,13 @@
         <v>508516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>841</v>
@@ -3794,13 +3806,13 @@
         <v>953013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3827,13 @@
         <v>168080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -3830,13 +3842,13 @@
         <v>103537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -3845,13 +3857,13 @@
         <v>271617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3878,13 @@
         <v>612577</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>536</v>
@@ -3881,13 +3893,13 @@
         <v>612053</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1082</v>
@@ -3896,18 +3908,18 @@
         <v>1224630</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,13 +3931,13 @@
         <v>331738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>334</v>
@@ -3934,13 +3946,13 @@
         <v>367173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>638</v>
@@ -3949,13 +3961,13 @@
         <v>698911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3982,13 @@
         <v>97691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -3985,13 +3997,13 @@
         <v>78793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -4000,13 +4012,13 @@
         <v>176484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4033,13 @@
         <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>405</v>
@@ -4036,13 +4048,13 @@
         <v>445966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -4051,18 +4063,18 @@
         <v>875395</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4086,13 @@
         <v>462078</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
@@ -4089,13 +4101,13 @@
         <v>639261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>1013</v>
@@ -4104,13 +4116,13 @@
         <v>1101339</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4137,13 @@
         <v>93421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4140,13 +4152,13 @@
         <v>101787</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>180</v>
@@ -4155,13 +4167,13 @@
         <v>195207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4188,13 @@
         <v>555499</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>693</v>
@@ -4191,13 +4203,13 @@
         <v>741048</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1193</v>
@@ -4206,13 +4218,13 @@
         <v>1296546</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4241,13 @@
         <v>2433292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2614</v>
@@ -4244,13 +4256,13 @@
         <v>2823037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>4876</v>
@@ -4259,13 +4271,13 @@
         <v>5256328</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4292,13 @@
         <v>986280</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>677</v>
@@ -4295,13 +4307,13 @@
         <v>725440</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>1617</v>
@@ -4310,13 +4322,13 @@
         <v>1711720</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4343,13 @@
         <v>3419572</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3291</v>
@@ -4346,13 +4358,13 @@
         <v>3548477</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6493</v>
@@ -4361,18 +4373,18 @@
         <v>6968048</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F9AD17-0ACF-4A39-9BD4-9198782CB855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C0DC0B-093D-4E27-A8F1-FF4F0AC9832A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4530,13 @@
         <v>256584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>253</v>
@@ -4533,13 +4545,13 @@
         <v>248452</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -4548,13 +4560,13 @@
         <v>505036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4581,13 @@
         <v>159676</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>149</v>
@@ -4584,13 +4596,13 @@
         <v>145372</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>298</v>
@@ -4599,13 +4611,13 @@
         <v>305048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4632,13 @@
         <v>416260</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>402</v>
@@ -4635,13 +4647,13 @@
         <v>393824</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -4650,18 +4662,18 @@
         <v>810084</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4673,13 +4685,13 @@
         <v>402690</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>416</v>
@@ -4688,13 +4700,13 @@
         <v>405438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>802</v>
@@ -4703,13 +4715,13 @@
         <v>808128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4736,13 @@
         <v>185773</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -4739,13 +4751,13 @@
         <v>154284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>338</v>
@@ -4754,13 +4766,13 @@
         <v>340058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4787,13 @@
         <v>588463</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>575</v>
@@ -4790,13 +4802,13 @@
         <v>559722</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1140</v>
@@ -4805,18 +4817,18 @@
         <v>1148186</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4828,13 +4840,13 @@
         <v>474741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>515</v>
@@ -4843,13 +4855,13 @@
         <v>514232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>967</v>
@@ -4858,13 +4870,13 @@
         <v>988973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4891,13 @@
         <v>193413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4894,13 +4906,13 @@
         <v>145161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>333</v>
@@ -4909,13 +4921,13 @@
         <v>338574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4942,13 @@
         <v>668154</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -4945,13 +4957,13 @@
         <v>659393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1300</v>
@@ -4960,18 +4972,18 @@
         <v>1327547</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4983,13 +4995,13 @@
         <v>454367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>483</v>
@@ -4998,13 +5010,13 @@
         <v>519936</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>895</v>
@@ -5013,13 +5025,13 @@
         <v>974302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5046,13 @@
         <v>184647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -5049,13 +5061,13 @@
         <v>126940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>281</v>
@@ -5064,13 +5076,13 @@
         <v>311588</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5097,13 @@
         <v>639014</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>600</v>
@@ -5100,13 +5112,13 @@
         <v>646876</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1176</v>
@@ -5115,18 +5127,18 @@
         <v>1285890</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5138,13 +5150,13 @@
         <v>370205</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>356</v>
@@ -5153,13 +5165,13 @@
         <v>408524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>685</v>
@@ -5168,13 +5180,13 @@
         <v>778728</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5201,13 @@
         <v>104671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5204,13 +5216,13 @@
         <v>84936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -5219,13 +5231,13 @@
         <v>189607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5252,13 @@
         <v>474876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>430</v>
@@ -5255,13 +5267,13 @@
         <v>493460</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>852</v>
@@ -5270,18 +5282,18 @@
         <v>968335</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5305,13 @@
         <v>483023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>534</v>
@@ -5308,13 +5320,13 @@
         <v>634212</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>1048</v>
@@ -5323,13 +5335,13 @@
         <v>1117235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5356,13 @@
         <v>107381</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -5359,13 +5371,13 @@
         <v>140297</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>230</v>
@@ -5374,13 +5386,13 @@
         <v>247678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5407,13 @@
         <v>590404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>652</v>
@@ -5410,13 +5422,13 @@
         <v>774509</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1278</v>
@@ -5425,13 +5437,13 @@
         <v>1364913</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5460,13 @@
         <v>2441609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>2557</v>
@@ -5463,13 +5475,13 @@
         <v>2730794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>4891</v>
@@ -5478,13 +5490,13 @@
         <v>5172404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5511,13 @@
         <v>935563</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H23" s="7">
         <v>765</v>
@@ -5514,13 +5526,13 @@
         <v>796990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>1647</v>
@@ -5529,13 +5541,13 @@
         <v>1732552</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5562,13 @@
         <v>3377172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3322</v>
@@ -5565,13 +5577,13 @@
         <v>3527784</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6538</v>
@@ -5580,18 +5592,18 @@
         <v>6904956</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C837F99A-EED6-4C1E-9110-04517A98D186}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7700E7E-70CB-45BB-A518-5EAE17E10BA9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5749,13 @@
         <v>343798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>191</v>
@@ -5752,13 +5764,13 @@
         <v>325410</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -5767,13 +5779,13 @@
         <v>669208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5800,13 @@
         <v>33881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5803,13 +5815,13 @@
         <v>29547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5818,13 +5830,13 @@
         <v>63428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5851,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5854,13 +5866,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5869,18 +5881,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5892,13 +5904,13 @@
         <v>406234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>439</v>
@@ -5907,13 +5919,13 @@
         <v>473699</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>725</v>
@@ -5922,13 +5934,13 @@
         <v>879933</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5955,13 @@
         <v>22162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -5958,13 +5970,13 @@
         <v>23737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -5973,13 +5985,13 @@
         <v>45899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +6006,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>459</v>
@@ -6009,13 +6021,13 @@
         <v>497436</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
@@ -6024,18 +6036,18 @@
         <v>925832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6047,13 +6059,13 @@
         <v>523822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>816</v>
@@ -6062,13 +6074,13 @@
         <v>559249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M10" s="7">
         <v>1331</v>
@@ -6077,13 +6089,13 @@
         <v>1083071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6110,13 @@
         <v>33270</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -6113,13 +6125,13 @@
         <v>24227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -6128,13 +6140,13 @@
         <v>57497</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6161,13 @@
         <v>557092</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -6164,13 +6176,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1391</v>
@@ -6179,18 +6191,18 @@
         <v>1140568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6214,13 @@
         <v>688569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>1097</v>
@@ -6217,13 +6229,13 @@
         <v>718235</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>1729</v>
@@ -6232,13 +6244,13 @@
         <v>1406804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6265,13 @@
         <v>35421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -6268,13 +6280,13 @@
         <v>27806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -6283,13 +6295,13 @@
         <v>63227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6316,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1139</v>
@@ -6319,13 +6331,13 @@
         <v>746041</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1804</v>
@@ -6334,18 +6346,18 @@
         <v>1470031</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6369,13 @@
         <v>558740</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>969</v>
@@ -6372,13 +6384,13 @@
         <v>576079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
         <v>1590</v>
@@ -6387,13 +6399,13 @@
         <v>1134819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6420,13 @@
         <v>39526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -6423,13 +6435,13 @@
         <v>20984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -6438,13 +6450,13 @@
         <v>60510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6471,13 @@
         <v>598266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1002</v>
@@ -6474,13 +6486,13 @@
         <v>597063</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1663</v>
@@ -6489,18 +6501,18 @@
         <v>1195329</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6524,13 @@
         <v>667077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>1645</v>
@@ -6527,13 +6539,13 @@
         <v>990304</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>2631</v>
@@ -6542,13 +6554,13 @@
         <v>1657381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6575,13 @@
         <v>29034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -6578,13 +6590,13 @@
         <v>33793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M20" s="7">
         <v>98</v>
@@ -6593,13 +6605,13 @@
         <v>62827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6626,13 @@
         <v>696111</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>1703</v>
@@ -6629,13 +6641,13 @@
         <v>1024097</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>2729</v>
@@ -6644,13 +6656,13 @@
         <v>1720208</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6679,13 @@
         <v>3188241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H22" s="7">
         <v>5157</v>
@@ -6682,13 +6694,13 @@
         <v>3642976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>8356</v>
@@ -6697,13 +6709,13 @@
         <v>6831217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6730,13 @@
         <v>193293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>199</v>
@@ -6733,13 +6745,13 @@
         <v>160094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -6748,13 +6760,13 @@
         <v>353387</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6781,13 @@
         <v>3381534</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>5356</v>
@@ -6784,13 +6796,13 @@
         <v>3803070</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>8727</v>
@@ -6799,18 +6811,18 @@
         <v>7184604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B321D9D-4FD4-4D4F-9EBC-868DF445FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FFC3D8-3FC2-4F9C-9DC2-C25CE1BB7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{966C861E-A2A5-415F-B832-C41A2FAF3849}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BF9513B7-CD8A-45DA-A27D-FD08ABE0EF95}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>49,97%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
   </si>
   <si>
     <t>52,8%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
   </si>
   <si>
     <t>51,35%</t>
   </si>
   <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,03%</t>
   </si>
   <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>47,2%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>61,96%</t>
   </si>
   <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
   </si>
   <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>65,23%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>38,04%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>34,77%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>61,38%</t>
   </si>
   <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>64,41%</t>
   </si>
   <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,166 +311,160 @@
     <t>70,42%</t>
   </si>
   <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>75,09%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,97 +476,100 @@
     <t>51,37%</t>
   </si>
   <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
   </si>
   <si>
     <t>63,78%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
   </si>
   <si>
     <t>48,63%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>67,11%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>75,43%</t>
   </si>
   <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>71,03%</t>
   </si>
   <si>
+    <t>68,19%</t>
+  </si>
+  <si>
     <t>73,47%</t>
   </si>
   <si>
     <t>32,89%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>28,97%</t>
@@ -581,631 +578,640 @@
     <t>26,53%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
@@ -1214,349 +1220,367 @@
     <t>91,03%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>87,12%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>95,08%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE0F017-D3E5-49E2-A90C-04CE041CD459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B313879-B77F-4D59-A943-17AEB660F19B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2715,10 +2739,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>295</v>
@@ -2727,13 +2751,13 @@
         <v>300748</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>570</v>
@@ -2742,13 +2766,13 @@
         <v>572483</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2787,13 @@
         <v>114141</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -2778,13 +2802,13 @@
         <v>103238</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -2793,13 +2817,13 @@
         <v>217379</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2879,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2867,13 +2891,13 @@
         <v>370448</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>517</v>
@@ -2882,13 +2906,13 @@
         <v>526173</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>901</v>
@@ -2897,13 +2921,13 @@
         <v>896622</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2942,13 @@
         <v>132018</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -2933,13 +2957,13 @@
         <v>150669</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -2948,13 +2972,13 @@
         <v>282686</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3046,13 @@
         <v>2071131</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2332</v>
@@ -3037,13 +3061,13 @@
         <v>2401571</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>4362</v>
@@ -3052,13 +3076,13 @@
         <v>4472702</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3097,13 @@
         <v>1204578</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>964</v>
@@ -3088,13 +3112,13 @@
         <v>976567</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2147</v>
@@ -3103,13 +3127,13 @@
         <v>2181145</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3189,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA40A052-E5BC-4E8F-9AD5-BA08616C8F14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB82C5-A6BD-4439-9B1F-B927CF626F83}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3204,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3311,13 +3335,13 @@
         <v>233283</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>268</v>
@@ -3326,13 +3350,13 @@
         <v>273813</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -3341,13 +3365,13 @@
         <v>507096</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3386,13 @@
         <v>220863</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
@@ -3377,13 +3401,13 @@
         <v>155475</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
@@ -3392,13 +3416,13 @@
         <v>376338</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3490,13 @@
         <v>461126</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>428</v>
@@ -3481,13 +3505,13 @@
         <v>460344</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>873</v>
@@ -3496,13 +3520,13 @@
         <v>921470</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3541,13 @@
         <v>225961</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -3532,13 +3556,13 @@
         <v>149911</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>365</v>
@@ -3547,13 +3571,13 @@
         <v>375872</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3645,13 @@
         <v>500568</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
@@ -3636,13 +3660,13 @@
         <v>573930</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -3651,13 +3675,13 @@
         <v>1074498</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3696,13 @@
         <v>180265</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -3687,13 +3711,13 @@
         <v>135936</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -3702,13 +3726,13 @@
         <v>316202</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3800,13 @@
         <v>444497</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -3791,13 +3815,13 @@
         <v>508516</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>841</v>
@@ -3806,13 +3830,13 @@
         <v>953013</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3851,13 @@
         <v>168080</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -3842,13 +3866,13 @@
         <v>103537</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -3857,13 +3881,13 @@
         <v>271617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3955,13 @@
         <v>331738</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>334</v>
@@ -3946,13 +3970,13 @@
         <v>367173</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>638</v>
@@ -3961,13 +3985,13 @@
         <v>698911</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4006,13 @@
         <v>97691</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -3997,13 +4021,13 @@
         <v>78793</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -4012,13 +4036,13 @@
         <v>176484</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,7 +4098,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4086,13 +4110,13 @@
         <v>462078</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>597</v>
@@ -4101,13 +4125,13 @@
         <v>639261</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>1013</v>
@@ -4116,13 +4140,13 @@
         <v>1101339</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4161,13 @@
         <v>93421</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -4152,13 +4176,13 @@
         <v>101787</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>180</v>
@@ -4167,13 +4191,13 @@
         <v>195207</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4265,13 @@
         <v>2433292</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2614</v>
@@ -4256,13 +4280,13 @@
         <v>2823037</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>4876</v>
@@ -4271,13 +4295,13 @@
         <v>5256328</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4316,13 @@
         <v>986280</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>677</v>
@@ -4307,13 +4331,13 @@
         <v>725440</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>1617</v>
@@ -4322,13 +4346,13 @@
         <v>1711720</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,7 +4408,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C0DC0B-093D-4E27-A8F1-FF4F0AC9832A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E1137-4646-4650-867A-0FE359CE9258}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +4554,13 @@
         <v>256584</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>253</v>
@@ -4545,13 +4569,13 @@
         <v>248452</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -4560,13 +4584,13 @@
         <v>505036</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4605,13 @@
         <v>159676</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>149</v>
@@ -4596,13 +4620,13 @@
         <v>145372</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>298</v>
@@ -4611,10 +4635,10 @@
         <v>305048</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>284</v>
@@ -5025,13 +5049,13 @@
         <v>974302</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5070,13 @@
         <v>184647</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -5061,13 +5085,13 @@
         <v>126940</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>281</v>
@@ -5076,13 +5100,13 @@
         <v>311588</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5174,13 @@
         <v>370205</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>356</v>
@@ -5165,13 +5189,13 @@
         <v>408524</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>685</v>
@@ -5180,13 +5204,13 @@
         <v>778728</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5225,13 @@
         <v>104671</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5216,13 +5240,13 @@
         <v>84936</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -5231,10 +5255,10 @@
         <v>189607</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>354</v>
@@ -5293,7 +5317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5475,13 +5499,13 @@
         <v>2730794</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>4891</v>
@@ -5490,13 +5514,13 @@
         <v>5172404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5535,13 @@
         <v>935563</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>765</v>
@@ -5526,13 +5550,13 @@
         <v>796990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>1647</v>
@@ -5541,13 +5565,13 @@
         <v>1732552</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,7 +5627,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5625,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7700E7E-70CB-45BB-A518-5EAE17E10BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110C662C-4117-43DD-8C36-7CC5C04BA929}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5642,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5749,13 +5773,13 @@
         <v>343798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>191</v>
@@ -5764,13 +5788,13 @@
         <v>325410</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -5779,13 +5803,13 @@
         <v>669208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5824,13 @@
         <v>33881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -5815,13 +5839,13 @@
         <v>29547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5830,13 +5854,13 @@
         <v>63428</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5928,13 @@
         <v>406234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>439</v>
@@ -5919,13 +5943,13 @@
         <v>473699</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M7" s="7">
         <v>725</v>
@@ -5934,13 +5958,13 @@
         <v>879933</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5979,13 @@
         <v>22162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -5970,13 +5994,13 @@
         <v>23737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -5985,13 +6009,13 @@
         <v>45899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6083,13 @@
         <v>523822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H10" s="7">
         <v>816</v>
@@ -6074,13 +6098,13 @@
         <v>559249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M10" s="7">
         <v>1331</v>
@@ -6089,13 +6113,13 @@
         <v>1083071</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6134,13 @@
         <v>33270</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -6125,13 +6149,13 @@
         <v>24227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -6140,13 +6164,13 @@
         <v>57497</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6238,13 @@
         <v>688569</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>1097</v>
@@ -6229,13 +6253,13 @@
         <v>718235</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>1729</v>
@@ -6244,13 +6268,13 @@
         <v>1406804</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6289,13 @@
         <v>35421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -6280,13 +6304,13 @@
         <v>27806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -6295,13 +6319,13 @@
         <v>63227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6393,13 @@
         <v>558740</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>969</v>
@@ -6384,13 +6408,13 @@
         <v>576079</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>1590</v>
@@ -6399,13 +6423,13 @@
         <v>1134819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6444,13 @@
         <v>39526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -6435,13 +6459,13 @@
         <v>20984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -6450,13 +6474,13 @@
         <v>60510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,7 +6536,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6524,13 +6548,13 @@
         <v>667077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H19" s="7">
         <v>1645</v>
@@ -6539,13 +6563,13 @@
         <v>990304</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M19" s="7">
         <v>2631</v>
@@ -6554,13 +6578,13 @@
         <v>1657381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6599,13 @@
         <v>29034</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -6590,13 +6614,13 @@
         <v>33793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M20" s="7">
         <v>98</v>
@@ -6605,13 +6629,13 @@
         <v>62827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6703,13 @@
         <v>3188241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>5157</v>
@@ -6694,13 +6718,13 @@
         <v>3642976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
         <v>8356</v>
@@ -6709,13 +6733,13 @@
         <v>6831217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6754,13 @@
         <v>193293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>199</v>
@@ -6745,13 +6769,13 @@
         <v>160094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -6760,13 +6784,13 @@
         <v>353387</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6846,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FFC3D8-3FC2-4F9C-9DC2-C25CE1BB7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E42FD393-A853-4D01-932D-240D0797BEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BF9513B7-CD8A-45DA-A27D-FD08ABE0EF95}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B150D1B5-0245-4D66-B84B-8520D610DB38}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="585">
   <si>
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>61,96%</t>
@@ -191,7 +191,7 @@
     <t>37,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>61,38%</t>
@@ -248,7 +248,7 @@
     <t>35,77%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>64,41%</t>
@@ -305,7 +305,7 @@
     <t>32,16%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>70,42%</t>
@@ -356,255 +356,318 @@
     <t>31,08%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2012 (Tasa respuesta: 99,78%)</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
     <t>23,33%</t>
   </si>
   <si>
@@ -737,58 +800,112 @@
     <t>22,97%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
   </si>
   <si>
     <t>71,16%</t>
@@ -1106,58 +1223,112 @@
     <t>22,45%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>72,3%</t>
@@ -1217,370 +1388,412 @@
     <t>Población según si consumen 3 veces o más a la semana verduras, ensaladas y hortalizas en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>94,17%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
   </si>
   <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +2205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B313879-B77F-4D59-A943-17AEB660F19B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836E302D-AE9E-4BDF-8646-BECC6F4C364C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2885,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="D19" s="7">
-        <v>370448</v>
+        <v>212498</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2900,10 +3113,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>517</v>
+        <v>291</v>
       </c>
       <c r="I19" s="7">
-        <v>526173</v>
+        <v>267894</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2915,10 +3128,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>901</v>
+        <v>510</v>
       </c>
       <c r="N19" s="7">
-        <v>896622</v>
+        <v>480392</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2936,10 +3149,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="D20" s="7">
-        <v>132018</v>
+        <v>80085</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2951,10 +3164,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>150669</v>
+        <v>75040</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2966,10 +3179,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>282686</v>
+        <v>155125</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2987,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3002,10 +3215,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3230,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3034,55 +3247,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2030</v>
+        <v>165</v>
       </c>
       <c r="D22" s="7">
-        <v>2071131</v>
+        <v>157951</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>2332</v>
+        <v>226</v>
       </c>
       <c r="I22" s="7">
-        <v>2401571</v>
+        <v>258279</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>4362</v>
+        <v>391</v>
       </c>
       <c r="N22" s="7">
-        <v>4472702</v>
+        <v>416229</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3304,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1183</v>
+        <v>55</v>
       </c>
       <c r="D23" s="7">
-        <v>1204578</v>
+        <v>51932</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>964</v>
+        <v>64</v>
       </c>
       <c r="I23" s="7">
-        <v>976567</v>
+        <v>75629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>2147</v>
+        <v>119</v>
       </c>
       <c r="N23" s="7">
-        <v>2181145</v>
+        <v>127562</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,63 +3355,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2030</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2071131</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2332</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2401570</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4362</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4472702</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1183</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1204578</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>964</v>
+      </c>
+      <c r="I26" s="7">
+        <v>976567</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2147</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2181145</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275709</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
-        <v>3378138</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3378137</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6509</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6653847</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3211,8 +3580,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB82C5-A6BD-4439-9B1F-B927CF626F83}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0EEB00-FECD-4FF2-9AC9-AE0658AA47A0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3228,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3704,13 @@
         <v>233283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>268</v>
@@ -3350,13 +3719,13 @@
         <v>273813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -3365,13 +3734,13 @@
         <v>507096</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3755,13 @@
         <v>220863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>152</v>
@@ -3401,13 +3770,13 @@
         <v>155475</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
@@ -3416,13 +3785,13 @@
         <v>376338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3859,13 @@
         <v>461126</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>428</v>
@@ -3505,13 +3874,13 @@
         <v>460344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>873</v>
@@ -3520,13 +3889,13 @@
         <v>921470</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3910,13 @@
         <v>225961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>143</v>
@@ -3556,13 +3925,13 @@
         <v>149911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>365</v>
@@ -3571,13 +3940,13 @@
         <v>375872</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,28 +4014,28 @@
         <v>500568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>542</v>
       </c>
       <c r="I10" s="7">
-        <v>573930</v>
+        <v>573931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -3675,13 +4044,13 @@
         <v>1074498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +4065,13 @@
         <v>180265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -3711,13 +4080,13 @@
         <v>135936</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>299</v>
@@ -3726,13 +4095,13 @@
         <v>316202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +4128,7 @@
         <v>666</v>
       </c>
       <c r="I12" s="7">
-        <v>709866</v>
+        <v>709867</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3800,13 +4169,13 @@
         <v>444497</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -3815,13 +4184,13 @@
         <v>508516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>841</v>
@@ -3830,13 +4199,13 @@
         <v>953013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +4220,13 @@
         <v>168080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -3866,13 +4235,13 @@
         <v>103537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -3881,13 +4250,13 @@
         <v>271617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +4324,13 @@
         <v>331738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>334</v>
@@ -3970,13 +4339,13 @@
         <v>367173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>638</v>
@@ -3985,13 +4354,13 @@
         <v>698911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4375,13 @@
         <v>97691</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4021,13 +4390,13 @@
         <v>78793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>160</v>
@@ -4036,13 +4405,13 @@
         <v>176484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,49 +4473,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>416</v>
+        <v>227</v>
       </c>
       <c r="D19" s="7">
-        <v>462078</v>
+        <v>251638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>597</v>
+        <v>300</v>
       </c>
       <c r="I19" s="7">
-        <v>639261</v>
+        <v>309614</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>1013</v>
+        <v>527</v>
       </c>
       <c r="N19" s="7">
-        <v>1101339</v>
+        <v>561251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,49 +4524,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>93421</v>
+        <v>55079</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
+        <v>44</v>
+      </c>
+      <c r="I20" s="7">
+        <v>44382</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M20" s="7">
         <v>96</v>
       </c>
-      <c r="I20" s="7">
-        <v>101787</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M20" s="7">
-        <v>180</v>
-      </c>
       <c r="N20" s="7">
-        <v>195207</v>
+        <v>99462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,10 +4575,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>555499</v>
+        <v>306717</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4590,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741048</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4236,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>623</v>
       </c>
       <c r="N21" s="7">
-        <v>1296546</v>
+        <v>660713</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4253,55 +4622,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2262</v>
+        <v>189</v>
       </c>
       <c r="D22" s="7">
-        <v>2433292</v>
+        <v>210441</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>2614</v>
+        <v>297</v>
       </c>
       <c r="I22" s="7">
-        <v>2823037</v>
+        <v>329648</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>4876</v>
+        <v>486</v>
       </c>
       <c r="N22" s="7">
-        <v>5256328</v>
+        <v>540088</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,49 +4679,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>940</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7">
-        <v>986280</v>
+        <v>38341</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>677</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>725440</v>
+        <v>57404</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>1617</v>
+        <v>84</v>
       </c>
       <c r="N23" s="7">
-        <v>1711720</v>
+        <v>95746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,63 +4730,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248782</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387052</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635834</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2262</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2433291</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2614</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2823037</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4876</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5256329</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>940</v>
+      </c>
+      <c r="D26" s="7">
+        <v>986280</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" s="7">
+        <v>677</v>
+      </c>
+      <c r="I26" s="7">
+        <v>725440</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1617</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1711720</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3202</v>
       </c>
-      <c r="D24" s="7">
-        <v>3419572</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3419571</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3291</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3548477</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6493</v>
       </c>
-      <c r="N24" s="7">
-        <v>6968048</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6968049</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4430,8 +4955,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E1137-4646-4650-867A-0FE359CE9258}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9766D20-68F4-4124-955F-8083BCD3EB30}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4447,7 +4972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +5079,13 @@
         <v>256584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>253</v>
@@ -4569,13 +5094,13 @@
         <v>248452</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>494</v>
@@ -4584,13 +5109,13 @@
         <v>505036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +5130,13 @@
         <v>159676</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>149</v>
@@ -4620,13 +5145,13 @@
         <v>145372</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>298</v>
@@ -4635,13 +5160,13 @@
         <v>305048</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +5234,13 @@
         <v>402690</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>416</v>
@@ -4724,13 +5249,13 @@
         <v>405438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>802</v>
@@ -4739,13 +5264,13 @@
         <v>808128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +5285,13 @@
         <v>185773</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -4775,13 +5300,13 @@
         <v>154284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>338</v>
@@ -4790,13 +5315,13 @@
         <v>340058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +5389,13 @@
         <v>474741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>515</v>
@@ -4879,13 +5404,13 @@
         <v>514232</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>967</v>
@@ -4894,13 +5419,13 @@
         <v>988973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +5440,13 @@
         <v>193413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4930,13 +5455,13 @@
         <v>145161</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>333</v>
@@ -4945,13 +5470,13 @@
         <v>338574</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5544,13 @@
         <v>454367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>483</v>
@@ -5034,13 +5559,13 @@
         <v>519936</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>895</v>
@@ -5052,10 +5577,10 @@
         <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5595,13 @@
         <v>184647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -5085,13 +5610,13 @@
         <v>126940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>281</v>
@@ -5103,10 +5628,10 @@
         <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5699,13 @@
         <v>370205</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>356</v>
@@ -5189,13 +5714,13 @@
         <v>408524</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>685</v>
@@ -5204,13 +5729,13 @@
         <v>778728</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5750,13 @@
         <v>104671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5240,13 +5765,13 @@
         <v>84936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -5255,13 +5780,13 @@
         <v>189607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5848,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>514</v>
+        <v>262</v>
       </c>
       <c r="D19" s="7">
-        <v>483023</v>
+        <v>269173</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
-        <v>534</v>
+        <v>296</v>
       </c>
       <c r="I19" s="7">
-        <v>634212</v>
+        <v>317663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
-        <v>1048</v>
+        <v>558</v>
       </c>
       <c r="N19" s="7">
-        <v>1117235</v>
+        <v>586836</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5899,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>107381</v>
+        <v>64233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
+        <v>56</v>
+      </c>
+      <c r="I20" s="7">
+        <v>58024</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M20" s="7">
         <v>118</v>
       </c>
-      <c r="I20" s="7">
-        <v>140297</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M20" s="7">
-        <v>230</v>
-      </c>
       <c r="N20" s="7">
-        <v>247678</v>
+        <v>122257</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>590404</v>
+        <v>333406</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5440,10 +5965,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>652</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>774509</v>
+        <v>375687</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5455,10 +5980,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1278</v>
+        <v>676</v>
       </c>
       <c r="N21" s="7">
-        <v>1364913</v>
+        <v>709093</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5472,55 +5997,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2334</v>
+        <v>252</v>
       </c>
       <c r="D22" s="7">
-        <v>2441609</v>
+        <v>213850</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
-        <v>2557</v>
+        <v>238</v>
       </c>
       <c r="I22" s="7">
-        <v>2730794</v>
+        <v>316549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
-        <v>4891</v>
+        <v>490</v>
       </c>
       <c r="N22" s="7">
-        <v>5172404</v>
+        <v>530399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +6054,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>882</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7">
-        <v>935563</v>
+        <v>43148</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
-        <v>765</v>
+        <v>62</v>
       </c>
       <c r="I23" s="7">
-        <v>796990</v>
+        <v>82273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
-        <v>1647</v>
+        <v>112</v>
       </c>
       <c r="N23" s="7">
-        <v>1732552</v>
+        <v>125421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,63 +6105,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398822</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655820</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2334</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2441609</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2557</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2730794</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4891</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5172404</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>882</v>
+      </c>
+      <c r="D26" s="7">
+        <v>935562</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H26" s="7">
+        <v>765</v>
+      </c>
+      <c r="I26" s="7">
+        <v>796990</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1647</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1732552</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3216</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377172</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3377171</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3322</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3527784</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6538</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6904956</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5649,8 +6330,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110C662C-4117-43DD-8C36-7CC5C04BA929}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E974378E-545F-4B47-BF20-E8B4C1BFDA55}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5666,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5770,46 +6451,46 @@
         <v>159</v>
       </c>
       <c r="D4" s="7">
-        <v>343798</v>
+        <v>362717</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>191</v>
       </c>
       <c r="I4" s="7">
-        <v>325410</v>
+        <v>284493</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
       </c>
       <c r="N4" s="7">
-        <v>669208</v>
+        <v>647210</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,46 +6502,46 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>33881</v>
+        <v>37270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>29547</v>
+        <v>28707</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>63428</v>
+        <v>65977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +6553,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5887,7 +6568,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5902,7 +6583,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5925,46 +6606,46 @@
         <v>286</v>
       </c>
       <c r="D7" s="7">
-        <v>406234</v>
+        <v>401827</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>439</v>
       </c>
       <c r="I7" s="7">
-        <v>473699</v>
+        <v>488829</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>725</v>
       </c>
       <c r="N7" s="7">
-        <v>879933</v>
+        <v>890656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,46 +6657,46 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>22162</v>
+        <v>21720</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>23737</v>
+        <v>21804</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
       </c>
       <c r="N8" s="7">
-        <v>45899</v>
+        <v>43524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6708,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6042,7 +6723,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497436</v>
+        <v>510633</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6057,7 +6738,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925832</v>
+        <v>934180</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6080,46 +6761,46 @@
         <v>515</v>
       </c>
       <c r="D10" s="7">
-        <v>523822</v>
+        <v>503213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>816</v>
       </c>
       <c r="I10" s="7">
-        <v>559249</v>
+        <v>519681</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="M10" s="7">
         <v>1331</v>
       </c>
       <c r="N10" s="7">
-        <v>1083071</v>
+        <v>1022893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,46 +6812,46 @@
         <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>33270</v>
+        <v>32962</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>24227</v>
+        <v>22787</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>57497</v>
+        <v>55749</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,7 +6863,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>536175</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6197,7 +6878,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6212,7 +6893,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1078642</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6235,46 +6916,46 @@
         <v>632</v>
       </c>
       <c r="D13" s="7">
-        <v>688569</v>
+        <v>852813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>1097</v>
       </c>
       <c r="I13" s="7">
-        <v>718235</v>
+        <v>686008</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
         <v>1729</v>
       </c>
       <c r="N13" s="7">
-        <v>1406804</v>
+        <v>1538821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,46 +6967,46 @@
         <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>35421</v>
+        <v>34973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>27806</v>
+        <v>25802</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>63227</v>
+        <v>60775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +7018,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6352,7 +7033,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746041</v>
+        <v>711810</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6367,7 +7048,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470031</v>
+        <v>1599596</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6390,46 +7071,46 @@
         <v>621</v>
       </c>
       <c r="D16" s="7">
-        <v>558740</v>
+        <v>521815</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="H16" s="7">
         <v>969</v>
       </c>
       <c r="I16" s="7">
-        <v>576079</v>
+        <v>528335</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>1590</v>
       </c>
       <c r="N16" s="7">
-        <v>1134819</v>
+        <v>1050150</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,46 +7122,46 @@
         <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>39526</v>
+        <v>37681</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>20984</v>
+        <v>19570</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
       </c>
       <c r="N17" s="7">
-        <v>60510</v>
+        <v>57251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +7173,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598266</v>
+        <v>559496</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6507,7 +7188,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6522,7 +7203,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1195329</v>
+        <v>1107401</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6542,49 +7223,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>986</v>
+        <v>545</v>
       </c>
       <c r="D19" s="7">
-        <v>667077</v>
+        <v>349911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
-        <v>1645</v>
+        <v>799</v>
       </c>
       <c r="I19" s="7">
-        <v>990304</v>
+        <v>593929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="M19" s="7">
-        <v>2631</v>
+        <v>1344</v>
       </c>
       <c r="N19" s="7">
-        <v>1657381</v>
+        <v>943840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,49 +7274,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>29034</v>
+        <v>17447</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>33793</v>
+        <v>13344</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="N20" s="7">
-        <v>62827</v>
+        <v>30791</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,10 +7325,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696111</v>
+        <v>367358</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6659,10 +7340,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1703</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024097</v>
+        <v>607273</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6674,10 +7355,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2729</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1720208</v>
+        <v>974631</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6691,55 +7372,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3199</v>
+        <v>441</v>
       </c>
       <c r="D22" s="7">
-        <v>3188241</v>
+        <v>271604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
-        <v>5157</v>
+        <v>846</v>
       </c>
       <c r="I22" s="7">
-        <v>3642976</v>
+        <v>406939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
-        <v>8356</v>
+        <v>1287</v>
       </c>
       <c r="N22" s="7">
-        <v>6831217</v>
+        <v>678542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,49 +7429,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>193293</v>
+        <v>10414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>506</v>
+        <v>560</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>561</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="H23" s="7">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7">
-        <v>160094</v>
+        <v>17649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="M23" s="7">
-        <v>371</v>
+        <v>48</v>
       </c>
       <c r="N23" s="7">
-        <v>353387</v>
+        <v>28063</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,63 +7480,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282018</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424588</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1335</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706605</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3199</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3263898</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5157</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3508214</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="M25" s="7">
+        <v>8356</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6772113</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>172</v>
+      </c>
+      <c r="D26" s="7">
+        <v>192468</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H26" s="7">
+        <v>199</v>
+      </c>
+      <c r="I26" s="7">
+        <v>149662</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M26" s="7">
+        <v>371</v>
+      </c>
+      <c r="N26" s="7">
+        <v>342130</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3381534</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456366</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5356</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803070</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657876</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8727</v>
       </c>
-      <c r="N24" s="7">
-        <v>7184604</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7114243</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
